--- a/data/7月天府路数据/7月份学习卡额度.xlsx
+++ b/data/7月天府路数据/7月份学习卡额度.xlsx
@@ -12,10 +12,10 @@
     <sheet name="人事档案" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A类">计算明细!$AD$3:$AD$14</definedName>
-    <definedName name="B类">计算明细!$AE$3:$AE$5</definedName>
-    <definedName name="C类">计算明细!$AF$3:$AF$7</definedName>
-    <definedName name="D类">计算明细!$AG$3:$AG$4</definedName>
+    <definedName name="A类">计算明细!$AD$2:$AD$13</definedName>
+    <definedName name="B类">计算明细!$AE$2:$AE$4</definedName>
+    <definedName name="C类">计算明细!$AF$2:$AF$6</definedName>
+    <definedName name="D类">计算明细!$AG$2:$AG$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -432,7 +432,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,15 +492,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -563,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,9 +668,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,13 +985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1039,200 +1027,292 @@
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="33" customHeight="1">
-      <c r="B1" s="38" t="str">
-        <f>"2017年"&amp;MONTH(D3)&amp;"月"&amp;"学习卡额度计算明细表"</f>
-        <v>2017年7月学习卡额度计算明细表</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:35" s="24" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:35" s="24" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R1" s="24">
         <v>1</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S1" s="24">
         <v>1.2</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T1" s="24">
         <v>1.5</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U1" s="24">
         <v>2</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="30" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="15">
+        <v>42917</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="17">
+        <f>VLOOKUP(E2,人事档案!$A:$C,3,0)</f>
+        <v>42451</v>
+      </c>
+      <c r="G2" s="25" t="str">
+        <f>IF(F2&lt;N2,"正式期","试用期")</f>
+        <v>正式期</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <f>H2+I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>IF(G2="试用期",L2+IF(J2&lt;S2,J2*4,IF(J2&lt;T2,J2*4.8,IF(J2&lt;U2,J2*6,J2*8))),IF(J2&lt;S2,J2*4,IF(J2&lt;T2,J2*4.8,IF(J2&lt;U2,J2*6,J2*8))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <f>IF((F2-N2)&lt;0,0,VLOOKUP(B2,AH:AI,2,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="27" t="str">
+        <f>IF(G2="试用期","",IF(I2-R2&gt;0,"是","否"))</f>
+        <v>否</v>
+      </c>
+      <c r="N2" s="18">
+        <f>VLOOKUP(D2,W:X,2,0)</f>
+        <v>42767</v>
+      </c>
+      <c r="O2" s="18">
+        <f>DATE(YEAR(D2),MONTH(D2)-5,DAY(D2))</f>
+        <v>42767</v>
+      </c>
+      <c r="P2" s="18" t="str">
+        <f>B2</f>
+        <v>A类</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="31">
+        <f>VLOOKUP(P2,AA:AB,2,0)</f>
+        <v>30000</v>
+      </c>
+      <c r="S2" s="31">
+        <f>VLOOKUP(P2,AA:AC,3,0)</f>
+        <v>50000</v>
+      </c>
+      <c r="T2" s="19">
+        <f>S2*2</f>
+        <v>100000</v>
+      </c>
+      <c r="U2" s="19">
+        <f>S2*3</f>
+        <v>150000</v>
+      </c>
+      <c r="W2" s="20">
+        <v>42767</v>
+      </c>
+      <c r="X2" s="28">
+        <v>42614</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="29">
+        <v>30000</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>50000</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>35000</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="15">
         <v>42917</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="17">
+        <v>54</v>
+      </c>
+      <c r="F3" s="34">
         <f>VLOOKUP(E3,人事档案!$A:$C,3,0)</f>
-        <v>42451</v>
+        <v>42791</v>
       </c>
       <c r="G3" s="25" t="str">
-        <f>IF(F3&lt;N3,"正式期","试用期")</f>
-        <v>正式期</v>
+        <f t="shared" ref="G3:G16" si="0">IF(F3&lt;N3,"正式期","试用期")</f>
+        <v>试用期</v>
       </c>
       <c r="H3" s="21">
         <v>0</v>
       </c>
       <c r="I3" s="21">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J3" s="26">
-        <f>H3+I3</f>
-        <v>0</v>
+        <f t="shared" ref="J3:J5" si="1">H3+I3</f>
+        <v>10000</v>
       </c>
       <c r="K3" s="3">
-        <f>IF(G3="试用期",L3+IF(J3&lt;S3,J3*4,IF(J3&lt;T3,J3*4.8,IF(J3&lt;U3,J3*6,J3*8))),IF(J3&lt;S3,J3*4,IF(J3&lt;T3,J3*4.8,IF(J3&lt;U3,J3*6,J3*8))))</f>
-        <v>0</v>
+        <f t="shared" ref="K3:K6" si="2">IF(G3="试用期",L3+IF(J3&lt;S3,J3*4,IF(J3&lt;T3,J3*4.8,IF(J3&lt;U3,J3*6,J3*8))),IF(J3&lt;S3,J3*4,IF(J3&lt;T3,J3*4.8,IF(J3&lt;U3,J3*6,J3*8))))</f>
+        <v>75000</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L7" si="0">IF((F3-N3)&lt;0,0,VLOOKUP(B3,AH:AI,2,0))</f>
-        <v>0</v>
+        <f>IF((F3-N3)&lt;0,0,VLOOKUP(B3,AH:AI,2,0))</f>
+        <v>35000</v>
       </c>
       <c r="M3" s="27" t="str">
-        <f>IF(G3="试用期","",IF(I3-R3&gt;0,"是","否"))</f>
-        <v>否</v>
+        <f t="shared" ref="M3:M5" si="3">IF(G3="试用期","",IF(I3-R3&gt;0,"是","否"))</f>
+        <v/>
       </c>
       <c r="N3" s="18">
-        <f t="shared" ref="N3:N14" si="1">VLOOKUP(D3,W:X,2,0)</f>
+        <f>VLOOKUP(D3,W:X,2,0)</f>
         <v>42767</v>
       </c>
       <c r="O3" s="18">
-        <f>DATE(YEAR(D3),MONTH(D3)-5,DAY(D3))</f>
+        <f t="shared" ref="O3:O5" si="4">DATE(YEAR(D3),MONTH(D3)-5,DAY(D3))</f>
         <v>42767</v>
       </c>
       <c r="P3" s="18" t="str">
-        <f>B3</f>
+        <f t="shared" ref="P3:P5" si="5">B3</f>
         <v>A类</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="R3" s="31">
-        <f t="shared" ref="R3:R14" si="2">VLOOKUP(P3,AA:AB,2,0)</f>
+        <f>VLOOKUP(P3,AA:AB,2,0)</f>
         <v>30000</v>
       </c>
       <c r="S3" s="31">
-        <f t="shared" ref="S3:S14" si="3">VLOOKUP(P3,AA:AC,3,0)</f>
+        <f>VLOOKUP(P3,AA:AC,3,0)</f>
         <v>50000</v>
       </c>
       <c r="T3" s="19">
-        <f>S3*2</f>
+        <f t="shared" ref="T3:T13" si="6">S3*2</f>
         <v>100000</v>
       </c>
       <c r="U3" s="19">
-        <f>S3*3</f>
+        <f t="shared" ref="U3:U13" si="7">S3*3</f>
         <v>150000</v>
       </c>
       <c r="W3" s="20">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="X3" s="28">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="29">
+        <v>20000</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>40000</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
         <v>30000</v>
-      </c>
-      <c r="AC3" s="29">
-        <v>50000</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>35000</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>0</v>
@@ -1244,104 +1324,101 @@
         <v>42917</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F4" s="34">
         <f>VLOOKUP(E4,人事档案!$A:$C,3,0)</f>
-        <v>42791</v>
+        <v>42748</v>
       </c>
       <c r="G4" s="25" t="str">
-        <f t="shared" ref="G4:G17" si="4">IF(F4&lt;N4,"正式期","试用期")</f>
-        <v>试用期</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>正式期</v>
+      </c>
+      <c r="H4" s="35">
+        <v>50000</v>
       </c>
       <c r="I4" s="21">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="26">
-        <f t="shared" ref="J4:J6" si="5">H4+I4</f>
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>50000</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K7" si="6">IF(G4="试用期",L4+IF(J4&lt;S4,J4*4,IF(J4&lt;T4,J4*4.8,IF(J4&lt;U4,J4*6,J4*8))),IF(J4&lt;S4,J4*4,IF(J4&lt;T4,J4*4.8,IF(J4&lt;U4,J4*6,J4*8))))</f>
-        <v>75000</v>
+        <f t="shared" si="2"/>
+        <v>240000</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="0"/>
-        <v>35000</v>
+        <f>IF((F4-N4)&lt;0,0,VLOOKUP(B4,AH:AI,2,0))</f>
+        <v>0</v>
       </c>
       <c r="M4" s="27" t="str">
-        <f t="shared" ref="M4:M6" si="7">IF(G4="试用期","",IF(I4-R4&gt;0,"是","否"))</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>否</v>
       </c>
       <c r="N4" s="18">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(D4,W:X,2,0)</f>
         <v>42767</v>
       </c>
       <c r="O4" s="18">
-        <f t="shared" ref="O4:O6" si="8">DATE(YEAR(D4),MONTH(D4)-5,DAY(D4))</f>
+        <f t="shared" si="4"/>
         <v>42767</v>
       </c>
       <c r="P4" s="18" t="str">
-        <f t="shared" ref="P4:P6" si="9">B4</f>
+        <f t="shared" si="5"/>
         <v>A类</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="31">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P4,AA:AB,2,0)</f>
         <v>30000</v>
       </c>
       <c r="S4" s="31">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P4,AA:AC,3,0)</f>
         <v>50000</v>
       </c>
       <c r="T4" s="19">
-        <f t="shared" ref="T4:T14" si="10">S4*2</f>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="U4" s="19">
-        <f t="shared" ref="U4:U14" si="11">S4*3</f>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
       <c r="W4" s="20">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="X4" s="28">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="29">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AC4" s="29">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="1">
-        <v>30000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>0</v>
@@ -1353,101 +1430,98 @@
         <v>42917</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="34">
         <f>VLOOKUP(E5,人事档案!$A:$C,3,0)</f>
-        <v>42748</v>
+        <v>42825</v>
       </c>
       <c r="G5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>试用期</v>
+      </c>
+      <c r="H5" s="35">
+        <v>40000</v>
+      </c>
+      <c r="I5" s="21">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="26">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>275000</v>
+      </c>
+      <c r="L5" s="3">
+        <f>IF((F5-N5)&lt;0,0,VLOOKUP(B5,AH:AI,2,0))</f>
+        <v>35000</v>
+      </c>
+      <c r="M5" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N5" s="18">
+        <f>VLOOKUP(D5,W:X,2,0)</f>
+        <v>42767</v>
+      </c>
+      <c r="O5" s="18">
         <f t="shared" si="4"/>
-        <v>正式期</v>
-      </c>
-      <c r="H5" s="35">
-        <v>50000</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26">
+        <v>42767</v>
+      </c>
+      <c r="P5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>50000</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="6"/>
-        <v>240000</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="27" t="str">
-        <f t="shared" si="7"/>
-        <v>否</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" si="1"/>
-        <v>42767</v>
-      </c>
-      <c r="O5" s="18">
-        <f t="shared" si="8"/>
-        <v>42767</v>
-      </c>
-      <c r="P5" s="18" t="str">
-        <f t="shared" si="9"/>
         <v>A类</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="31">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P5,AA:AB,2,0)</f>
         <v>30000</v>
       </c>
       <c r="S5" s="31">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P5,AA:AC,3,0)</f>
         <v>50000</v>
       </c>
       <c r="T5" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="U5" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
       <c r="W5" s="20">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="X5" s="28">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="29">
         <v>10000</v>
       </c>
       <c r="AC5" s="29">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="1">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>0</v>
@@ -1459,98 +1533,83 @@
         <v>42917</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="34">
         <f>VLOOKUP(E6,人事档案!$A:$C,3,0)</f>
-        <v>42825</v>
+        <v>42217</v>
       </c>
       <c r="G6" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>试用期</v>
+        <f t="shared" si="0"/>
+        <v>正式期</v>
       </c>
       <c r="H6" s="35">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="I6" s="21">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="26">
-        <f t="shared" si="5"/>
-        <v>50000</v>
+        <f t="shared" ref="J6" si="8">H6+I6</f>
+        <v>30000</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="6"/>
-        <v>275000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="0"/>
-        <v>35000</v>
+        <f>IF((F6-N6)&lt;0,0,VLOOKUP(B6,AH:AI,2,0))</f>
+        <v>0</v>
       </c>
       <c r="M6" s="27" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ref="M6" si="9">IF(G6="试用期","",IF(I6-R6&gt;0,"是","否"))</f>
+        <v>否</v>
       </c>
       <c r="N6" s="18">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(D6,W:X,2,0)</f>
         <v>42767</v>
       </c>
       <c r="O6" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="O6" si="10">DATE(YEAR(D6),MONTH(D6)-5,DAY(D6))</f>
         <v>42767</v>
       </c>
       <c r="P6" s="18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P6" si="11">B6</f>
         <v>A类</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="31">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P6,AA:AB,2,0)</f>
         <v>30000</v>
       </c>
       <c r="S6" s="31">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P6,AA:AC,3,0)</f>
         <v>50000</v>
       </c>
       <c r="T6" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="U6" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
       <c r="W6" s="20">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="X6" s="28">
-        <v>42705</v>
-      </c>
-      <c r="AA6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="29">
-        <v>10000</v>
-      </c>
-      <c r="AC6" s="29">
-        <v>20000</v>
+        <v>42736</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>20000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>0</v>
@@ -1562,235 +1621,217 @@
         <v>42917</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F7" s="34">
-        <f>VLOOKUP(E7,人事档案!$A:$C,3,0)</f>
-        <v>42217</v>
+        <v>42833</v>
       </c>
       <c r="G7" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>正式期</v>
-      </c>
-      <c r="H7" s="35">
-        <v>30000</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>试用期</v>
+      </c>
+      <c r="H7" s="21">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="21"/>
       <c r="J7" s="26">
-        <f t="shared" ref="J7" si="12">H7+I7</f>
-        <v>30000</v>
+        <f t="shared" ref="J7:J13" si="12">H7+I7</f>
+        <v>10000</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="6"/>
-        <v>120000</v>
+        <f t="shared" ref="K7:K16" si="13">IF(G7="试用期",L7+IF(J7&lt;S7,J7*4,IF(J7&lt;T7,J7*4.8,IF(J7&lt;U7,J7*6,J7*8))),IF(J7&lt;S7,J7*4,IF(J7&lt;T7,J7*4.8,IF(J7&lt;U7,J7*6,J7*8))))</f>
+        <v>75000</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF((F7-N7)&lt;0,0,VLOOKUP(B7,AH:AI,2,0))</f>
+        <v>35000</v>
       </c>
       <c r="M7" s="27" t="str">
-        <f t="shared" ref="M7" si="13">IF(G7="试用期","",IF(I7-R7&gt;0,"是","否"))</f>
-        <v>否</v>
+        <f t="shared" ref="M7:M16" si="14">IF(G7="试用期","",IF(I7-R7&gt;0,"是","否"))</f>
+        <v/>
       </c>
       <c r="N7" s="18">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(D7,W:X,2,0)</f>
         <v>42767</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" ref="O7" si="14">DATE(YEAR(D7),MONTH(D7)-5,DAY(D7))</f>
+        <f t="shared" ref="O7:O13" si="15">DATE(YEAR(D7),MONTH(D7)-5,DAY(D7))</f>
         <v>42767</v>
       </c>
       <c r="P7" s="18" t="str">
-        <f t="shared" ref="P7" si="15">B7</f>
+        <f t="shared" ref="P7:P13" si="16">B7</f>
         <v>A类</v>
       </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="31">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P7,AA:AB,2,0)</f>
         <v>30000</v>
       </c>
       <c r="S7" s="31">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P7,AA:AC,3,0)</f>
         <v>50000</v>
       </c>
       <c r="T7" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>100000</v>
       </c>
       <c r="U7" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>150000</v>
       </c>
       <c r="W7" s="20">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="X7" s="28">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1">
       <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="15">
-        <v>42917</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="34">
-        <v>42833</v>
-      </c>
-      <c r="G8" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>试用期</v>
-      </c>
-      <c r="H8" s="21">
-        <v>10000</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="26">
-        <f t="shared" ref="J8:J14" si="16">H8+I8</f>
-        <v>10000</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" ref="K8:K17" si="17">IF(G8="试用期",L8+IF(J8&lt;S8,J8*4,IF(J8&lt;T8,J8*4.8,IF(J8&lt;U8,J8*6,J8*8))),IF(J8&lt;S8,J8*4,IF(J8&lt;T8,J8*4.8,IF(J8&lt;U8,J8*6,J8*8))))</f>
-        <v>75000</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" ref="L8:L17" si="18">IF((F8-N8)&lt;0,0,VLOOKUP(B8,AH:AI,2,0))</f>
-        <v>35000</v>
-      </c>
-      <c r="M8" s="27" t="str">
-        <f t="shared" ref="M8:M17" si="19">IF(G8="试用期","",IF(I8-R8&gt;0,"是","否"))</f>
-        <v/>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="1"/>
-        <v>42767</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" ref="O8:O14" si="20">DATE(YEAR(D8),MONTH(D8)-5,DAY(D8))</f>
-        <v>42767</v>
-      </c>
-      <c r="P8" s="18" t="str">
-        <f t="shared" ref="P8:P14" si="21">B8</f>
-        <v>A类</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="3" t="e">
+        <f>IF((F8-N8)&lt;0,0,VLOOKUP(B8,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="18" t="e">
+        <f>VLOOKUP(D8,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="Q8" s="18"/>
-      <c r="R8" s="31">
-        <f t="shared" si="2"/>
-        <v>30000</v>
-      </c>
-      <c r="S8" s="31">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="T8" s="19">
-        <f t="shared" si="10"/>
-        <v>100000</v>
-      </c>
-      <c r="U8" s="19">
-        <f t="shared" si="11"/>
-        <v>150000</v>
+      <c r="R8" s="31" t="e">
+        <f>VLOOKUP(P8,AA:AB,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S8" s="31" t="e">
+        <f>VLOOKUP(P8,AA:AC,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T8" s="19" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U8" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="W8" s="20">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="X8" s="28">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="30" customHeight="1">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="34"/>
       <c r="G9" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="3" t="e">
+        <f>IF((F9-N9)&lt;0,0,VLOOKUP(B9,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="18" t="e">
+        <f>VLOOKUP(D9,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O9" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="3" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="27" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N9" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="18" t="e">
-        <f t="shared" si="20"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P9" s="18">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q9" s="18"/>
       <c r="R9" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P9,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S9" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P9,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T9" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="U9" s="19" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="W9" s="20">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="X9" s="28">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="30" customHeight="1">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -1798,69 +1839,69 @@
       <c r="E10" s="16"/>
       <c r="F10" s="34"/>
       <c r="G10" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="3" t="e">
+        <f>IF((F10-N10)&lt;0,0,VLOOKUP(B10,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="18" t="e">
+        <f>VLOOKUP(D10,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O10" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="27" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="18" t="e">
-        <f t="shared" si="20"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P10" s="18">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P10,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S10" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P10,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T10" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="U10" s="19" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="W10" s="20">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="X10" s="28">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="30" customHeight="1">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -1868,69 +1909,69 @@
       <c r="E11" s="16"/>
       <c r="F11" s="34"/>
       <c r="G11" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="3" t="e">
+        <f>IF((F11-N11)&lt;0,0,VLOOKUP(B11,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="18" t="e">
+        <f>VLOOKUP(D11,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="3" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="27" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="18" t="e">
-        <f t="shared" si="20"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P11" s="18">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P11,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S11" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P11,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T11" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="U11" s="19" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="W11" s="20">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="X11" s="28">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="30" customHeight="1">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -1938,69 +1979,69 @@
       <c r="E12" s="16"/>
       <c r="F12" s="34"/>
       <c r="G12" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="3" t="e">
+        <f>IF((F12-N12)&lt;0,0,VLOOKUP(B12,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="18" t="e">
+        <f>VLOOKUP(D12,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O12" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P12" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="3" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="27" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="18" t="e">
-        <f t="shared" si="20"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P12" s="18">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P12,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S12" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P12,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T12" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="U12" s="19" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="W12" s="20">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="X12" s="28">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="30" customHeight="1">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2008,69 +2049,63 @@
       <c r="E13" s="16"/>
       <c r="F13" s="34"/>
       <c r="G13" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="26">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="3" t="e">
+        <f>IF((F13-N13)&lt;0,0,VLOOKUP(B13,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="18" t="e">
+        <f>VLOOKUP(D13,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O13" s="18" t="e">
+        <f t="shared" si="15"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="18">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="3" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="27" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="18" t="e">
-        <f t="shared" si="20"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P13" s="18">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P13,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S13" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P13,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T13" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="U13" s="19" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W13" s="20">
-        <v>43070</v>
-      </c>
-      <c r="X13" s="28">
-        <v>42917</v>
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="30" customHeight="1">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2078,63 +2113,60 @@
       <c r="E14" s="16"/>
       <c r="F14" s="34"/>
       <c r="G14" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="26">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J14:J16" si="17">H14+I14</f>
         <v>0</v>
       </c>
       <c r="K14" s="3" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="L14" s="3" t="e">
-        <f t="shared" si="18"/>
+        <f>IF((F14-N14)&lt;0,0,VLOOKUP(B14,AH:AI,2,0))</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="27" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="N14" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(D14,W:X,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="O14" s="18" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="O14:O16" si="18">DATE(YEAR(D14),MONTH(D14)-5,DAY(D14))</f>
         <v>#NUM!</v>
       </c>
       <c r="P14" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="P14:P16" si="19">B14</f>
         <v>0</v>
       </c>
       <c r="Q14" s="18"/>
       <c r="R14" s="31" t="e">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(P14,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S14" s="31" t="e">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(P14,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T14" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="T14:T16" si="20">S14*2</f>
         <v>#N/A</v>
       </c>
       <c r="U14" s="19" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>47</v>
+        <f t="shared" ref="U14:U16" si="21">S14*3</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="30" customHeight="1">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -2142,60 +2174,60 @@
       <c r="E15" s="16"/>
       <c r="F15" s="34"/>
       <c r="G15" s="25" t="e">
-        <f t="shared" si="4"/>
+        <f>IF(F15&lt;N15,"正式期","试用期")</f>
         <v>#N/A</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="26">
-        <f t="shared" ref="J15:J17" si="22">H15+I15</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K15" s="3" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="L15" s="3" t="e">
+        <f>IF((F15-N15)&lt;0,0,VLOOKUP(B15,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="18" t="e">
+        <f>VLOOKUP(D15,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="18" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P15" s="18">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="18" t="e">
-        <f t="shared" ref="N15:N17" si="23">VLOOKUP(D15,W:X,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="18" t="e">
-        <f t="shared" ref="O15:O17" si="24">DATE(YEAR(D15),MONTH(D15)-5,DAY(D15))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" ref="P15:P17" si="25">B15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="18"/>
       <c r="R15" s="31" t="e">
-        <f t="shared" ref="R15:R17" si="26">VLOOKUP(P15,AA:AB,2,0)</f>
+        <f>VLOOKUP(P15,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S15" s="31" t="e">
-        <f t="shared" ref="S15:S17" si="27">VLOOKUP(P15,AA:AC,3,0)</f>
+        <f>VLOOKUP(P15,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T15" s="19" t="e">
-        <f t="shared" ref="T15:T17" si="28">S15*2</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="U15" s="19" t="e">
-        <f t="shared" ref="U15:U17" si="29">S15*3</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="30" customHeight="1">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -2203,115 +2235,54 @@
       <c r="E16" s="16"/>
       <c r="F16" s="34"/>
       <c r="G16" s="25" t="e">
-        <f>IF(F16&lt;N16,"正式期","试用期")</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K16" s="3" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="L16" s="3" t="e">
+        <f>IF((F16-N16)&lt;0,0,VLOOKUP(B16,AH:AI,2,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="27" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="18" t="e">
+        <f>VLOOKUP(D16,W:X,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O16" s="18" t="e">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" s="27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="18">
         <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="18" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="18" t="e">
-        <f t="shared" si="24"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q16" s="18"/>
       <c r="R16" s="31" t="e">
-        <f t="shared" si="26"/>
+        <f>VLOOKUP(P16,AA:AB,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S16" s="31" t="e">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(P16,AA:AC,3,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T16" s="19" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="U16" s="19" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="30" customHeight="1">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="25" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="26">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="3" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="27" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="18" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="18" t="e">
-        <f t="shared" si="24"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P17" s="18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="31" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="31" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T17" s="19" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U17" s="19" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -2321,24 +2292,21 @@
     <protectedRange sqref="B1:F1048576" name="区域1"/>
     <protectedRange sqref="H1:I1048576" name="区域2"/>
   </protectedRanges>
-  <mergeCells count="1">
-    <mergeCell ref="B1:M1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="M2:M17">
+  <conditionalFormatting sqref="M1:M16">
     <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>"否"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17">
-      <formula1>$W$3:$W$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16">
+      <formula1>$W$2:$W$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B17">
-      <formula1>$AA$3:$AA$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
+      <formula1>$AA$2:$AA$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17">
-      <formula1>INDIRECT($B3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16">
+      <formula1>INDIRECT($B2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2370,20 +2338,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="10"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="27.75" customHeight="1">
       <c r="A2" s="4"/>
@@ -2415,7 +2383,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13">
@@ -2430,7 +2398,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="13">
@@ -2453,7 +2421,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="13">
         <f>B3*2</f>
         <v>10</v>
@@ -2467,7 +2435,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="41"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="13">
         <f>G3*2</f>
         <v>10</v>
@@ -2489,7 +2457,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="13">
         <f>B3*3</f>
         <v>15</v>
@@ -2503,7 +2471,7 @@
         <v>120</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="41"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="13">
         <f>G3*3</f>
         <v>15</v>
@@ -2525,7 +2493,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="13">
@@ -2540,7 +2508,7 @@
         <v>19.2</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="13">
@@ -2563,7 +2531,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="13">
         <f>B6*2</f>
         <v>8</v>
@@ -2577,7 +2545,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="41"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="13">
         <f>G6*2</f>
         <v>8</v>
@@ -2599,7 +2567,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="13">
         <f>B6*3</f>
         <v>12</v>
@@ -2613,7 +2581,7 @@
         <v>96</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="F8" s="41"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="13">
         <f>G6*3</f>
         <v>12</v>
@@ -2635,7 +2603,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="13">
@@ -2650,7 +2618,7 @@
         <v>14.399999999999999</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="13">
@@ -2673,7 +2641,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="13">
         <f>B9*2</f>
         <v>6</v>
@@ -2687,7 +2655,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="41"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="13">
         <f>G9*2</f>
         <v>6</v>
@@ -2709,7 +2677,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="13">
         <f>B9*3</f>
         <v>9</v>
@@ -2723,7 +2691,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="13">
         <f>G9*3</f>
         <v>9</v>
@@ -2745,7 +2713,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="13">
@@ -2760,7 +2728,7 @@
         <v>9.6</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="13">
@@ -2783,7 +2751,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="13">
         <f>B12*2</f>
         <v>4</v>
@@ -2797,7 +2765,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="41"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="13">
         <f>G12*2</f>
         <v>4</v>
@@ -2819,7 +2787,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="13">
         <f>B12*3</f>
         <v>6</v>
@@ -2833,7 +2801,7 @@
         <v>48</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="41"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="13">
         <f>G12*3</f>
         <v>6</v>
